--- a/uhh.xlsx
+++ b/uhh.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\gish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD69B4C0-AC59-4647-BA59-E5F24E1F9354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73536CB8-7527-4D46-932E-6CA65483A7ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лаб1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лаб2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>k</t>
   </si>
@@ -89,6 +90,42 @@
   <si>
     <t>0.75-0.85</t>
   </si>
+  <si>
+    <t>Термы</t>
+  </si>
+  <si>
+    <t>Работа</t>
+  </si>
+  <si>
+    <t>smth</t>
+  </si>
+  <si>
+    <t>Отдых</t>
+  </si>
+  <si>
+    <t>Сон</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>11-13</t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +201,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -188,6 +231,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -196,7 +297,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -210,6 +311,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -381,7 +524,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$L$1:$R$1</c:f>
+              <c:f>Лаб1!$L$1:$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -410,7 +553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$4:$R$4</c:f>
+              <c:f>Лаб1!$L$4:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -766,7 +909,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$L$1:$R$1</c:f>
+              <c:f>Лаб1!$L$1:$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -795,7 +938,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$2:$R$2</c:f>
+              <c:f>Лаб1!$L$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1151,7 +1294,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$L$1:$R$1</c:f>
+              <c:f>Лаб1!$L$1:$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1180,7 +1323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$6:$R$6</c:f>
+              <c:f>Лаб1!$L$6:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3466,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A22AB4-2B8C-44A4-BE27-A1AD1B87A802}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,15 +3704,15 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:R2" si="0">SUM(C2,C5,C8,C11,C14)</f>
+        <f>SUM(C2,C5,C8,C11,C14)</f>
         <v>5</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
+        <f>SUM(D2,D5,D8,D11,D14)</f>
         <v>2</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L2:R2" si="0">SUM(E2,E5,E8,E11,E14)</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -4363,4 +4506,1509 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B8C091-F53A-4640-A463-1A4320D492B0}">
+  <dimension ref="A1:R67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="K2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="30">
+        <f>SUMIF($B$2:$B$16,  "Низкий",C$2:C$16)</f>
+        <v>5</v>
+      </c>
+      <c r="M2" s="30">
+        <f>SUMIF($B$2:$B$16,  "Низкий",D$2:D$16)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="30">
+        <f t="shared" ref="M2:R2" si="0">SUMIF($B$2:$B$16,  "Низкий",E$2:E$16)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>SUMIF($B$2:$B$16,  "Низкий",H$2:H$16)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32">
+        <f>L2/5</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="32">
+        <f t="shared" ref="M3:R3" si="1">M2/5</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="30">
+        <f>SUMIF($B$2:$B$16,  "Средний",C$2:C$16)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="30">
+        <f t="shared" ref="M4:R4" si="2">SUMIF($B$2:$B$16,  "Средний",D$2:D$16)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="30">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P4" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32">
+        <f>L4/5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <f t="shared" ref="M5:R5" si="3">M4/5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="28">
+        <f>SUMIF($B$2:$B$16,  "Высокий",C$2:C$16)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
+        <f t="shared" ref="M6:R6" si="4">SUMIF($B$2:$B$16,  "Высокий",D$2:D$16)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="28">
+        <f>SUMIF($B$2:$B$16,  "Высокий",H$2:H$16)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="28">
+        <f>SUMIF($B$2:$B$16,  "Высокий",I$2:I$16)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="24">
+        <f>L6/5</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" ref="M7:R7" si="5">M6/5</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>1</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="K19" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="30">
+        <f>SUMIF($B$19:$B$33,  "Низкий",C$19:C$33)</f>
+        <v>5</v>
+      </c>
+      <c r="M19" s="30">
+        <f t="shared" ref="M19:R19" si="6">SUMIF($B$19:$B$33,  "Низкий",D$19:D$33)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32">
+        <f>L19/5</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="32">
+        <f t="shared" ref="M20" si="7">M19/5</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="32">
+        <f t="shared" ref="N20" si="8">N19/5</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="32">
+        <f t="shared" ref="O20" si="9">O19/5</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="32">
+        <f t="shared" ref="P20" si="10">P19/5</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="32">
+        <f t="shared" ref="Q20" si="11">Q19/5</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="32">
+        <f t="shared" ref="R20" si="12">R19/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="30">
+        <f>SUMIF($B$19:$B$33,  "Средний",C$19:C$33)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="30">
+        <f t="shared" ref="M21:R21" si="13">SUMIF($B$19:$B$33,  "Средний",D$19:D$33)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="30">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="P21" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="32">
+        <f>L21/5</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="32">
+        <f t="shared" ref="M22" si="14">M21/5</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="32">
+        <f t="shared" ref="N22" si="15">N21/5</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="32">
+        <f t="shared" ref="O22" si="16">O21/5</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="32">
+        <f t="shared" ref="P22" si="17">P21/5</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="32">
+        <f t="shared" ref="Q22" si="18">Q21/5</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="32">
+        <f t="shared" ref="R22" si="19">R21/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="K23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="28">
+        <f>SUMIF($B$19:$B$33,  "Высокий",C$19:C$33)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="28">
+        <f t="shared" ref="M23:R23" si="20">SUMIF($B$19:$B$33,  "Высокий",D$19:D$33)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="28">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="24">
+        <f>L23/5</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="24">
+        <f t="shared" ref="M24" si="21">M23/5</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" ref="N24" si="22">N23/5</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="24">
+        <f t="shared" ref="O24" si="23">O23/5</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="24">
+        <f t="shared" ref="P24" si="24">P23/5</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="24">
+        <f t="shared" ref="Q24" si="25">Q23/5</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="24">
+        <f t="shared" ref="R24" si="26">R23/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>3</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>4</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>5</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>1</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>2</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>3</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>4</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>5</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="14">
+        <v>1</v>
+      </c>
+      <c r="D52" s="14">
+        <v>2</v>
+      </c>
+      <c r="E52" s="14">
+        <v>3</v>
+      </c>
+      <c r="F52" s="14">
+        <v>4</v>
+      </c>
+      <c r="G52" s="14">
+        <v>5</v>
+      </c>
+      <c r="H52" s="14">
+        <v>6</v>
+      </c>
+      <c r="I52" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>1</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>2</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>3</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>4</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>5</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="R4 L4:Q4 L6:R6" formula="1"/>
+    <ignoredError sqref="H1 H18 H35 Q1" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/uhh.xlsx
+++ b/uhh.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\gish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\univer\3_1\gish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73536CB8-7527-4D46-932E-6CA65483A7ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31E252-B1BA-442A-B10E-759671F8B770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаб1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаб2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="33">
   <si>
     <t>k</t>
   </si>
@@ -97,9 +109,6 @@
     <t>Работа</t>
   </si>
   <si>
-    <t>smth</t>
-  </si>
-  <si>
     <t>Отдых</t>
   </si>
   <si>
@@ -125,6 +134,9 @@
   </si>
   <si>
     <t>13-15</t>
+  </si>
+  <si>
+    <t>Уровеь активности</t>
   </si>
 </sst>
 </file>
@@ -297,7 +309,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -305,54 +317,53 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -717,6 +728,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -724,7 +736,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1102,6 +1113,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1109,7 +1121,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1487,6 +1498,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1494,7 +1506,2122 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Работа</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Низкий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-629C-41AF-A38C-AB7088F5249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Средний</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-629C-41AF-A38C-AB7088F5249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Высокий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-629C-41AF-A38C-AB7088F5249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1542395216"/>
+        <c:axId val="1671946032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1542395216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671946032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1671946032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542395216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Отдых</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Низкий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FD5-46F4-990C-1E22EBA3EB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Средний</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$22:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9FD5-46F4-990C-1E22EBA3EB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Высокий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$24:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9FD5-46F4-990C-1E22EBA3EB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1542395216"/>
+        <c:axId val="1671946032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1542395216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671946032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1671946032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542395216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сон</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Низкий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$37:$R$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7CC-4AD0-8EE2-73012F1A74CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Средний</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$39:$R$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7CC-4AD0-8EE2-73012F1A74CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Высокий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$41:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F7CC-4AD0-8EE2-73012F1A74CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1542395216"/>
+        <c:axId val="1671946032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1542395216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671946032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1671946032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542395216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Уровень активности</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Низкий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$54:$R$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07C3-4CA6-A513-6A7A9434C4FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Средний</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$56:$R$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07C3-4CA6-A513-6A7A9434C4FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Высокий</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лаб2!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаб2!$L$58:$R$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-07C3-4CA6-A513-6A7A9434C4FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1542395216"/>
+        <c:axId val="1671946032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1542395216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671946032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1671946032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542395216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1649,6 +3776,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2682,6 +4969,2070 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3308,6 +7659,258 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFDE0C1-FD47-42F1-9EE2-3224F0F54337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC7D6EB-BCDD-43FE-84C0-50AC160DBD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA796A2-B9A1-45D5-AB47-0F07D2381B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C244E1F-E1AC-47BF-B5DF-465BB2E57486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+      <sheetName val="Лист4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="Q20">
+            <v>7.9652777777777781E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="L3">
+            <v>1</v>
+          </cell>
+          <cell r="M3">
+            <v>0.8</v>
+          </cell>
+          <cell r="N3">
+            <v>0.4</v>
+          </cell>
+          <cell r="O3">
+            <v>0</v>
+          </cell>
+          <cell r="P3">
+            <v>0</v>
+          </cell>
+          <cell r="Q3">
+            <v>0</v>
+          </cell>
+          <cell r="R3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5">
+            <v>0.2</v>
+          </cell>
+          <cell r="N5">
+            <v>0.6</v>
+          </cell>
+          <cell r="O5">
+            <v>1</v>
+          </cell>
+          <cell r="P5">
+            <v>1</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.6</v>
+          </cell>
+          <cell r="R5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>0</v>
+          </cell>
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+          <cell r="P7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.4</v>
+          </cell>
+          <cell r="R7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3673,7 +8276,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3700,7 +8303,7 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="L2">
@@ -3712,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="L2:R2" si="0">SUM(E2,E5,E8,E11,E14)</f>
+        <f t="shared" ref="N2:R2" si="0">SUM(E2,E5,E8,E11,E14)</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -3733,7 +8336,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3758,7 +8361,7 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="23"/>
       <c r="L3">
         <f>L2/5</f>
         <v>1</v>
@@ -3789,7 +8392,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3814,7 +8417,7 @@
       <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L4">
@@ -3847,7 +8450,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3874,7 +8477,7 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="23"/>
       <c r="L5">
         <f>L4/5</f>
         <v>0</v>
@@ -3905,7 +8508,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -3930,7 +8533,7 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="L6">
@@ -3963,7 +8566,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +8591,7 @@
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="23"/>
       <c r="L7">
         <f>L6/5</f>
         <v>0</v>
@@ -4019,7 +8622,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4046,19 +8649,19 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -4109,7 +8712,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -4166,7 +8769,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="22">
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4224,7 +8827,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -4279,7 +8882,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
@@ -4333,7 +8936,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="22">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4388,7 +8991,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
@@ -4440,7 +9043,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -4512,1471 +9115,2655 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B8C091-F53A-4640-A463-1A4320D492B0}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="K2" s="29" t="s">
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="20">
         <f>SUMIF($B$2:$B$16,  "Низкий",C$2:C$16)</f>
         <v>5</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="20">
         <f>SUMIF($B$2:$B$16,  "Низкий",D$2:D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="30">
-        <f t="shared" ref="M2:R2" si="0">SUMIF($B$2:$B$16,  "Низкий",E$2:E$16)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="30">
+        <v>3</v>
+      </c>
+      <c r="N2" s="20">
+        <f t="shared" ref="N2:R2" si="0">SUMIF($B$2:$B$16,  "Низкий",E$2:E$16)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="20">
         <f>SUMIF($B$2:$B$16,  "Низкий",H$2:H$16)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="21">
         <f>L2/5</f>
         <v>1</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="21">
         <f t="shared" ref="M3:R3" si="1">M2/5</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="N3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="20">
         <f>SUMIF($B$2:$B$16,  "Средний",C$2:C$16)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="20">
         <f t="shared" ref="M4:R4" si="2">SUMIF($B$2:$B$16,  "Средний",D$2:D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="30">
+        <v>2</v>
+      </c>
+      <c r="N4" s="20">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P4" s="30">
+      <c r="O4" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="30">
+        <v>5</v>
+      </c>
+      <c r="P4" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32">
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="21">
         <f>L4/5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="21">
         <f t="shared" ref="M5:R5" si="3">M4/5</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="32">
+        <v>1</v>
+      </c>
+      <c r="O5" s="21">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="27" t="s">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="19">
         <f>SUMIF($B$2:$B$16,  "Высокий",C$2:C$16)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="28">
-        <f t="shared" ref="M6:R6" si="4">SUMIF($B$2:$B$16,  "Высокий",D$2:D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="28">
+      <c r="M6" s="19">
+        <f t="shared" ref="M6:P6" si="4">SUMIF($B$2:$B$16,  "Высокий",D$2:D$16)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="19">
         <f>SUMIF($B$2:$B$16,  "Высокий",H$2:H$16)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="28">
+        <v>4</v>
+      </c>
+      <c r="R6" s="19">
         <f>SUMIF($B$2:$B$16,  "Высокий",I$2:I$16)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="24">
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="17">
         <f>L6/5</f>
         <v>0</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="17">
         <f t="shared" ref="M7:R7" si="5">M6/5</f>
         <v>0</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="R7" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19">
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="29">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19">
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="31">
         <v>5</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="F18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="G18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="H18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="I18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="N18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="O18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="P18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="Q18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="R18" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="R18" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>1</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="31">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="K19" s="29" t="s">
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="20">
         <f>SUMIF($B$19:$B$33,  "Низкий",C$19:C$33)</f>
         <v>5</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="20">
         <f t="shared" ref="M19:R19" si="6">SUMIF($B$19:$B$33,  "Низкий",D$19:D$33)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="30">
+        <v>4</v>
+      </c>
+      <c r="N19" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32">
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="21">
         <f>L19/5</f>
         <v>1</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="21">
         <f t="shared" ref="M20" si="7">M19/5</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="N20" s="21">
         <f t="shared" ref="N20" si="8">N19/5</f>
         <v>0</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="21">
         <f t="shared" ref="O20" si="9">O19/5</f>
         <v>0</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="21">
         <f t="shared" ref="P20" si="10">P19/5</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="21">
         <f t="shared" ref="Q20" si="11">Q19/5</f>
         <v>0</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="21">
         <f t="shared" ref="R20" si="12">R19/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-      <c r="K21" s="29" t="s">
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="20">
         <f>SUMIF($B$19:$B$33,  "Средний",C$19:C$33)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="20">
         <f t="shared" ref="M21:R21" si="13">SUMIF($B$19:$B$33,  "Средний",D$19:D$33)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="30">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="30">
+        <v>1</v>
+      </c>
+      <c r="N21" s="20">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="P21" s="30">
+      <c r="O21" s="20">
+        <f>SUMIF($B$19:$B$33,  "Средний",F$19:F$33)</f>
+        <v>5</v>
+      </c>
+      <c r="P21" s="20">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="29">
         <v>2</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="23">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32">
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="21">
         <f>L21/5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="21">
         <f t="shared" ref="M22" si="14">M21/5</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="N22" s="21">
         <f t="shared" ref="N22" si="15">N21/5</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="32">
+        <v>1</v>
+      </c>
+      <c r="O22" s="21">
         <f t="shared" ref="O22" si="16">O21/5</f>
         <v>1</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="21">
         <f t="shared" ref="P22" si="17">P21/5</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="Q22" s="21">
         <f t="shared" ref="Q22" si="18">Q21/5</f>
         <v>0</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="21">
         <f t="shared" ref="R22" si="19">R21/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="K23" s="27" t="s">
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="19">
         <f>SUMIF($B$19:$B$33,  "Высокий",C$19:C$33)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="19">
         <f t="shared" ref="M23:R23" si="20">SUMIF($B$19:$B$33,  "Высокий",D$19:D$33)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="19">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="19">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="19">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="28">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="19">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
+      <c r="R23" s="19">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19">
-        <v>1</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="24">
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="17">
         <f>L23/5</f>
         <v>0</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="17">
         <f t="shared" ref="M24" si="21">M23/5</f>
         <v>0</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="17">
         <f t="shared" ref="N24" si="22">N23/5</f>
         <v>0</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="17">
         <f t="shared" ref="O24" si="23">O23/5</f>
         <v>0</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="17">
         <f t="shared" ref="P24" si="24">P23/5</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="Q24" s="17">
         <f t="shared" ref="Q24" si="25">Q23/5</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17">
         <f t="shared" ref="R24" si="26">R23/5</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>3</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="23">
-        <v>1</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19">
+      <c r="C27" s="13">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="29">
         <v>4</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="23">
-        <v>1</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="C28" s="16">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19">
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="31">
         <v>5</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="17">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="D35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="L35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="N35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="O35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="P35" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="Q35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="R35" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="21" t="s">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>1</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="20">
+        <f>SUMIF($B$36:$B$50,  "Низкий",C$36:C$50)</f>
+        <v>5</v>
+      </c>
+      <c r="M36" s="20">
+        <f t="shared" ref="M36:R36" si="27">SUMIF($B$36:$B$50,  "Низкий",D$36:D$50)</f>
+        <v>5</v>
+      </c>
+      <c r="N36" s="20">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="28"/>
+      <c r="L37" s="21">
+        <f>L36/5</f>
+        <v>1</v>
+      </c>
+      <c r="M37" s="21">
+        <f t="shared" ref="M37:R37" si="28">M36/5</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="21">
+        <f t="shared" si="28"/>
+        <v>0.2</v>
+      </c>
+      <c r="O37" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="20">
+        <f>SUMIF($B$36:$B$50,  "Средний",C$36:C$50)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="20">
+        <f t="shared" ref="M38:R38" si="29">SUMIF($B$36:$B$50,  "Средний",D$36:D$50)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="20">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="O38" s="20">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="P38" s="20">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29">
+        <v>2</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="28"/>
+      <c r="L39" s="21">
+        <f>L38/5</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="21">
+        <f t="shared" ref="M39:R39" si="30">M38/5</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="21">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="O39" s="21">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="21">
+        <f t="shared" si="30"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q39" s="21">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="21">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",C$36:C$50)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" ref="M40:R40" si="31">SUMIF($B$36:$B$50,  "Высокий",D$36:D$50)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="20">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="Q40" s="20">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="R40" s="20">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
+      <c r="I41" s="13">
+        <v>1</v>
+      </c>
+      <c r="K41" s="25"/>
+      <c r="L41" s="17">
+        <f>L40/5</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <f t="shared" ref="M41:R41" si="32">M40/5</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
+        <f t="shared" si="32"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="17">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="29">
+        <v>3</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="30"/>
+      <c r="B44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>1</v>
+      </c>
+      <c r="H44" s="13">
+        <v>1</v>
+      </c>
+      <c r="I44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>4</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13">
+        <v>1</v>
+      </c>
+      <c r="I47" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
+        <v>5</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="B52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
-        <v>1</v>
-      </c>
-      <c r="B36" s="23" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
+        <v>1</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" s="20">
+        <f>SUMIF($B$53:$B$67,  "Низкий",C$53:C$67)</f>
+        <v>5</v>
+      </c>
+      <c r="M53" s="20">
+        <f t="shared" ref="M53:R53" si="33">SUMIF($B$53:$B$67,  "Низкий",D$53:D$67)</f>
+        <v>4</v>
+      </c>
+      <c r="N53" s="20">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="O53" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="10" t="s">
+    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26"/>
+      <c r="B54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="28"/>
+      <c r="L54" s="21">
+        <f>L53/5</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="21">
+        <f t="shared" ref="M54:R54" si="34">M53/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="N54" s="21">
+        <f t="shared" si="34"/>
+        <v>0.4</v>
+      </c>
+      <c r="O54" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="21">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19">
-        <v>1</v>
+      <c r="C55" s="9">
+        <v>0</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L55" s="20">
+        <f>SUMIF($B$53:$B$67,  "Средний",C$53:C$67)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="20">
+        <f t="shared" ref="M55:R55" si="35">SUMIF($B$53:$B$67,  "Средний",D$53:D$67)</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="20">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="O55" s="20">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="P55" s="20">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="Q55" s="20">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="R55" s="20">
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26">
         <v>2</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B56" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="28"/>
+      <c r="L56" s="21">
+        <f>L55/5</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="21">
+        <f t="shared" ref="M56:R56" si="36">M55/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="N56" s="21">
+        <f t="shared" si="36"/>
+        <v>0.6</v>
+      </c>
+      <c r="O56" s="21">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P56" s="21">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="21">
+        <f t="shared" si="36"/>
+        <v>0.6</v>
+      </c>
+      <c r="R56" s="21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="10" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8">
+        <v>1</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",C$53:C$67)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="20">
+        <f t="shared" ref="M57:R57" si="37">SUMIF($B$53:$B$67,  "Высокий",D$53:D$67)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="20">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R57" s="20">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19">
+      <c r="C58" s="9">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1</v>
+      </c>
+      <c r="K58" s="25"/>
+      <c r="L58" s="17">
+        <f>L57/5</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="17">
+        <f t="shared" ref="M58:R58" si="38">M57/5</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="17">
+        <f t="shared" si="38"/>
+        <v>0.4</v>
+      </c>
+      <c r="R58" s="17">
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="26">
         <v>3</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="10" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19">
+      <c r="C61" s="9">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1</v>
+      </c>
+      <c r="I61" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="26">
         <v>4</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="10" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="C63" s="8">
+        <v>0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
-        <v>5</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="14">
-        <v>1</v>
-      </c>
-      <c r="D52" s="14">
-        <v>2</v>
-      </c>
-      <c r="E52" s="14">
-        <v>3</v>
-      </c>
-      <c r="F52" s="14">
-        <v>4</v>
-      </c>
-      <c r="G52" s="14">
-        <v>5</v>
-      </c>
-      <c r="H52" s="14">
-        <v>6</v>
-      </c>
-      <c r="I52" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>1</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>2</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>3</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>4</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="C64" s="9">
+        <v>0</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1</v>
+      </c>
+      <c r="I64" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="A65" s="26">
         <v>5</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="26"/>
+      <c r="B66" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="26"/>
+      <c r="B67" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="32">
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -5993,16 +11780,6 @@
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6010,5 +11787,6 @@
     <ignoredError sqref="R4 L4:Q4 L6:R6" formula="1"/>
     <ignoredError sqref="H1 H18 H35 Q1" twoDigitTextYear="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/uhh.xlsx
+++ b/uhh.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\gish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Downloads\gish-main\gish-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73536CB8-7527-4D46-932E-6CA65483A7ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94EC8A-E77A-4BE9-8AF2-9472D8602C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаб1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаб2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="40">
   <si>
     <t>k</t>
   </si>
@@ -97,9 +109,6 @@
     <t>Работа</t>
   </si>
   <si>
-    <t>smth</t>
-  </si>
-  <si>
     <t>Отдых</t>
   </si>
   <si>
@@ -126,12 +135,36 @@
   <si>
     <t>13-15</t>
   </si>
+  <si>
+    <t>45-55</t>
+  </si>
+  <si>
+    <t>55-65</t>
+  </si>
+  <si>
+    <t>65-75</t>
+  </si>
+  <si>
+    <t>75-85</t>
+  </si>
+  <si>
+    <t>35-45</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>Продуктивность</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +206,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +254,23 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -290,14 +356,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -305,56 +374,68 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="40% — акцент6" xfId="6" builtinId="51"/>
+    <cellStyle name="60% — акцент6" xfId="7" builtinId="52"/>
+    <cellStyle name="Акцент6" xfId="5" builtinId="49"/>
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Нейтральный" xfId="4" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -717,6 +798,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -724,7 +806,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1102,6 +1183,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1109,7 +1191,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1487,6 +1568,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1494,7 +1576,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3311,9 +3392,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3351,7 +3432,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3457,7 +3538,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3599,7 +3680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3613,13 +3694,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3672,8 +3753,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3700,7 +3781,7 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="L2">
@@ -3712,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="L2:R2" si="0">SUM(E2,E5,E8,E11,E14)</f>
+        <f t="shared" ref="N2:R2" si="0">SUM(E2,E5,E8,E11,E14)</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -3732,8 +3813,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3758,7 +3839,7 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="24"/>
       <c r="L3">
         <f>L2/5</f>
         <v>1</v>
@@ -3788,8 +3869,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3814,7 +3895,7 @@
       <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="L4">
@@ -3846,8 +3927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3874,7 +3955,7 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="24"/>
       <c r="L5">
         <f>L4/5</f>
         <v>0</v>
@@ -3904,8 +3985,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -3930,7 +4011,7 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="L6">
@@ -3962,8 +4043,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +4069,7 @@
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="24"/>
       <c r="L7">
         <f>L6/5</f>
         <v>0</v>
@@ -4018,8 +4099,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4046,19 +4127,19 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -4108,8 +4189,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -4165,8 +4246,8 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4223,8 +4304,8 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -4278,8 +4359,8 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
@@ -4332,8 +4413,8 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4387,8 +4468,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
@@ -4439,8 +4520,8 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -4512,1471 +4593,2655 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B8C091-F53A-4640-A463-1A4320D492B0}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="C44" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="K2" s="29" t="s">
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="21">
         <f>SUMIF($B$2:$B$16,  "Низкий",C$2:C$16)</f>
         <v>5</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="21">
         <f>SUMIF($B$2:$B$16,  "Низкий",D$2:D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="30">
-        <f t="shared" ref="M2:R2" si="0">SUMIF($B$2:$B$16,  "Низкий",E$2:E$16)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="30">
+        <v>3</v>
+      </c>
+      <c r="N2" s="21">
+        <f t="shared" ref="N2:R2" si="0">SUMIF($B$2:$B$16,  "Низкий",E$2:E$16)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="21">
         <f>SUMIF($B$2:$B$16,  "Низкий",H$2:H$16)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="22">
         <f>L2/5</f>
         <v>1</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="22">
         <f t="shared" ref="M3:R3" si="1">M2/5</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="N3" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="21">
         <f>SUMIF($B$2:$B$16,  "Средний",C$2:C$16)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="21">
         <f t="shared" ref="M4:R4" si="2">SUMIF($B$2:$B$16,  "Средний",D$2:D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="30">
+        <v>2</v>
+      </c>
+      <c r="N4" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P4" s="30">
+      <c r="O4" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="30">
+        <v>5</v>
+      </c>
+      <c r="P4" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="R4" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="22">
         <f>L4/5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="22">
         <f t="shared" ref="M5:R5" si="3">M4/5</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="32">
+        <v>1</v>
+      </c>
+      <c r="O5" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="27" t="s">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="20">
         <f>SUMIF($B$2:$B$16,  "Высокий",C$2:C$16)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="28">
-        <f t="shared" ref="M6:R6" si="4">SUMIF($B$2:$B$16,  "Высокий",D$2:D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="28">
+      <c r="M6" s="20">
+        <f t="shared" ref="M6:P6" si="4">SUMIF($B$2:$B$16,  "Высокий",D$2:D$16)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="20">
         <f>SUMIF($B$2:$B$16,  "Высокий",H$2:H$16)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="28">
+        <v>4</v>
+      </c>
+      <c r="R6" s="20">
         <f>SUMIF($B$2:$B$16,  "Высокий",I$2:I$16)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19">
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14">
         <v>1</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="24">
+      <c r="L7" s="18">
         <f>L6/5</f>
         <v>0</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="18">
         <f t="shared" ref="M7:R7" si="5">M6/5</f>
         <v>0</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="R7" s="18">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10" t="s">
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="32">
         <v>5</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10" t="s">
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11" t="s">
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="F18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="H18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="I18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="N18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="O18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="P18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="Q18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="R18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>1</v>
-      </c>
-      <c r="B19" s="23" t="s">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="32">
+        <v>1</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="K19" s="29" t="s">
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="21">
         <f>SUMIF($B$19:$B$33,  "Низкий",C$19:C$33)</f>
         <v>5</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="21">
         <f t="shared" ref="M19:R19" si="6">SUMIF($B$19:$B$33,  "Низкий",D$19:D$33)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="30">
+        <v>5</v>
+      </c>
+      <c r="N19" s="21">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="30">
+        <v>1</v>
+      </c>
+      <c r="O19" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32">
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="22">
         <f>L19/5</f>
         <v>1</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="22">
         <f t="shared" ref="M20" si="7">M19/5</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="32">
+        <v>1</v>
+      </c>
+      <c r="N20" s="22">
         <f t="shared" ref="N20" si="8">N19/5</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="O20" s="22">
         <f t="shared" ref="O20" si="9">O19/5</f>
         <v>0</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="22">
         <f t="shared" ref="P20" si="10">P19/5</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="22">
         <f t="shared" ref="Q20" si="11">Q19/5</f>
         <v>0</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="22">
         <f t="shared" ref="R20" si="12">R19/5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-      <c r="K21" s="29" t="s">
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="21">
         <f>SUMIF($B$19:$B$33,  "Средний",C$19:C$33)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="21">
         <f t="shared" ref="M21:R21" si="13">SUMIF($B$19:$B$33,  "Средний",D$19:D$33)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="30">
+        <v>4</v>
+      </c>
+      <c r="O21" s="21">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="21">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="30">
         <v>2</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="23">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32">
+      <c r="C22" s="17">
+        <v>1</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="22">
         <f>L21/5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="22">
         <f t="shared" ref="M22" si="14">M21/5</f>
         <v>0</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="22">
         <f t="shared" ref="N22" si="15">N21/5</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="O22" s="22">
         <f t="shared" ref="O22" si="16">O21/5</f>
         <v>1</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="22">
         <f t="shared" ref="P22" si="17">P21/5</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="Q22" s="22">
         <f t="shared" ref="Q22" si="18">Q21/5</f>
         <v>0</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="22">
         <f t="shared" ref="R22" si="19">R21/5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="K23" s="27" t="s">
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="20">
         <f>SUMIF($B$19:$B$33,  "Высокий",C$19:C$33)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="20">
         <f t="shared" ref="M23:R23" si="20">SUMIF($B$19:$B$33,  "Высокий",D$19:D$33)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="28">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="20">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19" t="s">
+      <c r="R23" s="20">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19">
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
         <v>1</v>
       </c>
       <c r="K24" s="26"/>
-      <c r="L24" s="24">
+      <c r="L24" s="18">
         <f>L23/5</f>
         <v>0</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="18">
         <f t="shared" ref="M24" si="21">M23/5</f>
         <v>0</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="18">
         <f t="shared" ref="N24" si="22">N23/5</f>
         <v>0</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="18">
         <f t="shared" ref="O24" si="23">O23/5</f>
         <v>0</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="18">
         <f t="shared" ref="P24" si="24">P23/5</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Q24" s="18">
         <f t="shared" ref="Q24" si="25">Q23/5</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="18">
         <f t="shared" ref="R24" si="26">R23/5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>3</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="23">
-        <v>1</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10" t="s">
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19" t="s">
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
         <v>4</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="23">
-        <v>1</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="10" t="s">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="C30" s="14">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="32">
         <v>5</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="17">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="10" t="s">
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11" t="s">
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="D35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="L35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="N35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="O35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="P35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="Q35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="R35" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="21" t="s">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="32">
+        <v>1</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",C$36:C$50)</f>
+        <v>5</v>
+      </c>
+      <c r="M36" s="21">
+        <f t="shared" ref="M36:R36" si="27">SUMIF($B$36:$B$50,  "Низкий",D$36:D$50)</f>
+        <v>4</v>
+      </c>
+      <c r="N36" s="21">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="21">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="21">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="21">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="27"/>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="22">
+        <f>L36/5</f>
+        <v>1</v>
+      </c>
+      <c r="M37" s="22">
+        <f t="shared" ref="M37:R37" si="28">M36/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="N37" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+      <c r="H38" s="14">
+        <v>1</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",C$36:C$50)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <f t="shared" ref="M38:R38" si="29">SUMIF($B$36:$B$50,  "Средний",D$36:D$50)</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="21">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="O38" s="21">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="P38" s="21">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="Q38" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="30">
+        <v>2</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="29"/>
+      <c r="L39" s="22">
+        <f>L38/5</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <f t="shared" ref="M39:R39" si="30">M38/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="N39" s="22">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="22">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="22">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q39" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",C$36:C$50)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" ref="M40:R40" si="31">SUMIF($B$36:$B$50,  "Высокий",D$36:D$50)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="20">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="Q40" s="20">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="R40" s="20">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="18">
+        <f>L40/5</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="18">
+        <f t="shared" ref="M41:R41" si="32">M40/5</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="18">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="18">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="18">
+        <f t="shared" si="32"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q41" s="18">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="18">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="30">
+        <v>3</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="31"/>
+      <c r="B44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="30">
+        <v>4</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0</v>
+      </c>
+      <c r="I45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>1</v>
+      </c>
+      <c r="I47" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="32">
+        <v>5</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
-        <v>1</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="G52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="27">
+        <v>1</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="10" t="s">
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",C$53:C$67)</f>
+        <v>5</v>
+      </c>
+      <c r="M53" s="21">
+        <f t="shared" ref="M53:R53" si="33">SUMIF($B$53:$B$67,  "Низкий",D$53:D$67)</f>
+        <v>4</v>
+      </c>
+      <c r="N53" s="21">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="O53" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="27"/>
+      <c r="B54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19" t="s">
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="29"/>
+      <c r="L54" s="22">
+        <f>L53/5</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="22">
+        <f t="shared" ref="M54:R54" si="34">M53/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="N54" s="22">
+        <f t="shared" si="34"/>
+        <v>0.4</v>
+      </c>
+      <c r="O54" s="22">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="22">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="22">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="22">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="C55" s="9">
+        <v>0</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1</v>
+      </c>
+      <c r="K55" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",C$53:C$67)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="21">
+        <f t="shared" ref="M55:R55" si="35">SUMIF($B$53:$B$67,  "Средний",D$53:D$67)</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="21">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="O55" s="21">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="P55" s="21">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="Q55" s="21">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="R55" s="21">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="27">
         <v>2</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B56" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="10" t="s">
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="29"/>
+      <c r="L56" s="22">
+        <f>L55/5</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="22">
+        <f t="shared" ref="M56:R56" si="36">M55/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="N56" s="22">
+        <f t="shared" si="36"/>
+        <v>0.6</v>
+      </c>
+      <c r="O56" s="22">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="P56" s="22">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="22">
+        <f t="shared" si="36"/>
+        <v>0.6</v>
+      </c>
+      <c r="R56" s="22">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19" t="s">
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8">
+        <v>1</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="L57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",C$53:C$67)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="20">
+        <f t="shared" ref="M57:R57" si="37">SUMIF($B$53:$B$67,  "Высокий",D$53:D$67)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="20">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R57" s="20">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1</v>
+      </c>
+      <c r="K58" s="26"/>
+      <c r="L58" s="18">
+        <f>L57/5</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="18">
+        <f t="shared" ref="M58:R58" si="38">M57/5</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="18">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="18">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="18">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="18">
+        <f t="shared" si="38"/>
+        <v>0.4</v>
+      </c>
+      <c r="R58" s="18">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="27">
         <v>3</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="10" t="s">
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19" t="s">
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="C61" s="9">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="10" t="s">
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="27"/>
+      <c r="B63" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19" t="s">
+      <c r="C63" s="8">
+        <v>0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="C64" s="9">
+        <v>0</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1</v>
+      </c>
+      <c r="I64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="27">
         <v>5</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B65" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="10" t="s">
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
+      <c r="B66" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11" t="s">
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="14">
-        <v>1</v>
-      </c>
-      <c r="D52" s="14">
-        <v>2</v>
-      </c>
-      <c r="E52" s="14">
-        <v>3</v>
-      </c>
-      <c r="F52" s="14">
-        <v>4</v>
-      </c>
-      <c r="G52" s="14">
-        <v>5</v>
-      </c>
-      <c r="H52" s="14">
-        <v>6</v>
-      </c>
-      <c r="I52" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>1</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>2</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>3</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>4</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>5</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="32">
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -5993,16 +7258,6 @@
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6011,4 +7266,364 @@
     <ignoredError sqref="H1 H18 H35 Q1" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5E3A00-7AF9-4921-AFD1-04311C47B2FD}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="33">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33">
+        <v>0</v>
+      </c>
+      <c r="D1" s="33">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33">
+        <v>0</v>
+      </c>
+      <c r="F1" s="33">
+        <v>0</v>
+      </c>
+      <c r="G1" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34">
+        <v>1</v>
+      </c>
+      <c r="G2" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
+        <v>0</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35">
+        <v>0</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+      <c r="G4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>0</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34">
+        <v>1</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="35">
+        <v>0</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>0</v>
+      </c>
+      <c r="B8" s="34">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="35">
+        <v>0</v>
+      </c>
+      <c r="B9" s="35">
+        <v>0</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>1</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>0</v>
+      </c>
+      <c r="B11" s="34">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="35">
+        <v>0</v>
+      </c>
+      <c r="C12" s="35">
+        <v>0</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>1</v>
+      </c>
+      <c r="B13" s="33">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>0</v>
+      </c>
+      <c r="B14" s="34">
+        <v>0</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1</v>
+      </c>
+      <c r="F14" s="34">
+        <v>1</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uhh.xlsx
+++ b/uhh.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Downloads\gish-main\gish-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\univer\3_1\gish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94EC8A-E77A-4BE9-8AF2-9472D8602C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC86E30-BF13-4EFC-8708-52451C51E5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10500" activeTab="2" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаб1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаб2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
+    <sheet name="Лаб3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="54">
   <si>
     <t>k</t>
   </si>
@@ -159,12 +158,54 @@
   <si>
     <t>Продуктивность</t>
   </si>
+  <si>
+    <t>Качество исследований</t>
+  </si>
+  <si>
+    <t>Продолжительность</t>
+  </si>
+  <si>
+    <t>Бюджет</t>
+  </si>
+  <si>
+    <t>Рейтинг</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>30-40</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>60-70</t>
+  </si>
+  <si>
+    <t>70-80</t>
+  </si>
+  <si>
+    <t>80-90</t>
+  </si>
+  <si>
+    <t>90-100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,24 +247,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,25 +281,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -355,16 +363,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -392,6 +423,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,38 +438,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="40% — акцент6" xfId="6" builtinId="51"/>
-    <cellStyle name="60% — акцент6" xfId="7" builtinId="52"/>
-    <cellStyle name="Акцент6" xfId="5" builtinId="49"/>
+  <cellStyles count="5">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Нейтральный" xfId="4" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3392,9 +3420,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3432,7 +3460,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3538,7 +3566,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3680,7 +3708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3694,13 +3722,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3753,8 +3781,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3781,7 +3809,7 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="L2">
@@ -3813,8 +3841,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3839,7 +3867,7 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="25"/>
       <c r="L3">
         <f>L2/5</f>
         <v>1</v>
@@ -3869,8 +3897,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3895,7 +3923,7 @@
       <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="L4">
@@ -3927,8 +3955,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3955,7 +3983,7 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="25"/>
       <c r="L5">
         <f>L4/5</f>
         <v>0</v>
@@ -3985,8 +4013,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -4011,7 +4039,7 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="L6">
@@ -4043,8 +4071,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4097,7 @@
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="25"/>
       <c r="L7">
         <f>L6/5</f>
         <v>0</v>
@@ -4099,8 +4127,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4127,19 +4155,19 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -4189,8 +4217,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -4246,8 +4274,8 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4304,8 +4332,8 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -4359,8 +4387,8 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
@@ -4413,8 +4441,8 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4468,8 +4496,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
@@ -4520,8 +4548,8 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -4593,13 +4621,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B8C091-F53A-4640-A463-1A4320D492B0}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A55"/>
+    <sheetView topLeftCell="A3" zoomScale="82" workbookViewId="0">
+      <selection sqref="A1:R67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
@@ -4652,8 +4680,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -4712,8 +4740,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4768,8 +4796,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
@@ -4826,8 +4854,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -4884,8 +4912,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -4910,7 +4938,7 @@
       <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="20">
@@ -4942,8 +4970,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
@@ -4968,7 +4996,7 @@
       <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="18">
         <f>L6/5</f>
         <v>0</v>
@@ -4998,8 +5026,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -5027,8 +5055,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
@@ -5054,8 +5082,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
@@ -5081,8 +5109,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -5110,8 +5138,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
@@ -5137,8 +5165,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
@@ -5164,8 +5192,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -5193,8 +5221,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
@@ -5220,8 +5248,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
@@ -5247,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5258,7 +5286,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
@@ -5311,8 +5339,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
         <v>1</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -5371,8 +5399,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
@@ -5427,8 +5455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
       <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
@@ -5485,8 +5513,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
         <v>2</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -5543,8 +5571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
@@ -5569,7 +5597,7 @@
       <c r="I23" s="8">
         <v>0</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="26" t="s">
         <v>4</v>
       </c>
       <c r="L23" s="20">
@@ -5601,8 +5629,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
@@ -5627,7 +5655,7 @@
       <c r="I24" s="14">
         <v>1</v>
       </c>
-      <c r="K24" s="26"/>
+      <c r="K24" s="27"/>
       <c r="L24" s="18">
         <f>L23/5</f>
         <v>0</v>
@@ -5657,8 +5685,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
         <v>3</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -5686,8 +5714,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
       <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
@@ -5713,8 +5741,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
       <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
@@ -5740,8 +5768,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
         <v>4</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -5769,8 +5797,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
       <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
@@ -5796,8 +5824,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
       <c r="B30" s="14" t="s">
         <v>4</v>
       </c>
@@ -5823,8 +5851,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="32">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
         <v>5</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -5852,8 +5880,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
       <c r="B32" s="8" t="s">
         <v>3</v>
       </c>
@@ -5879,8 +5907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
       <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
@@ -5906,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -5917,7 +5945,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>24</v>
       </c>
@@ -5970,8 +5998,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="32">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
         <v>1</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -6030,8 +6058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
       <c r="B37" s="8" t="s">
         <v>3</v>
       </c>
@@ -6086,8 +6114,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
       <c r="B38" s="14" t="s">
         <v>4</v>
       </c>
@@ -6144,8 +6172,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="30">
+    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
         <v>2</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -6202,8 +6230,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
@@ -6228,7 +6256,7 @@
       <c r="I40" s="8">
         <v>0</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="26" t="s">
         <v>4</v>
       </c>
       <c r="L40" s="20">
@@ -6260,8 +6288,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
+    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32"/>
       <c r="B41" s="14" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6314,7 @@
       <c r="I41" s="14">
         <v>1</v>
       </c>
-      <c r="K41" s="26"/>
+      <c r="K41" s="27"/>
       <c r="L41" s="18">
         <f>L40/5</f>
         <v>0</v>
@@ -6316,8 +6344,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="30">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
         <v>3</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -6345,8 +6373,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
       <c r="B43" s="8" t="s">
         <v>3</v>
       </c>
@@ -6372,8 +6400,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
       <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
@@ -6399,8 +6427,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="30">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
         <v>4</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -6428,8 +6456,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
       <c r="B46" s="8" t="s">
         <v>3</v>
       </c>
@@ -6455,8 +6483,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
       <c r="B47" s="14" t="s">
         <v>4</v>
       </c>
@@ -6482,8 +6510,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="32">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -6511,8 +6539,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
       <c r="B49" s="8" t="s">
         <v>3</v>
       </c>
@@ -6538,8 +6566,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
       <c r="B50" s="9" t="s">
         <v>4</v>
       </c>
@@ -6565,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -6576,7 +6604,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>39</v>
       </c>
@@ -6629,8 +6657,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="27">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="31">
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -6689,8 +6717,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="27"/>
+    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
       <c r="B54" s="8" t="s">
         <v>3</v>
       </c>
@@ -6745,8 +6773,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
       <c r="B55" s="9" t="s">
         <v>4</v>
       </c>
@@ -6803,8 +6831,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="27">
+    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31">
         <v>2</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -6861,8 +6889,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
       <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
@@ -6887,7 +6915,7 @@
       <c r="I57" s="8">
         <v>0</v>
       </c>
-      <c r="K57" s="25" t="s">
+      <c r="K57" s="26" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="20">
@@ -6919,8 +6947,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
       <c r="B58" s="9" t="s">
         <v>4</v>
       </c>
@@ -6945,7 +6973,7 @@
       <c r="I58" s="9">
         <v>1</v>
       </c>
-      <c r="K58" s="26"/>
+      <c r="K58" s="27"/>
       <c r="L58" s="18">
         <f>L57/5</f>
         <v>0</v>
@@ -6975,8 +7003,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="27">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="31">
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -7004,8 +7032,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
       <c r="B60" s="8" t="s">
         <v>3</v>
       </c>
@@ -7031,8 +7059,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
       <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
@@ -7058,8 +7086,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="27">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="31">
         <v>4</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -7087,8 +7115,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
       <c r="B63" s="8" t="s">
         <v>3</v>
       </c>
@@ -7114,8 +7142,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="31"/>
       <c r="B64" s="9" t="s">
         <v>4</v>
       </c>
@@ -7141,8 +7169,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="27">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="31">
         <v>5</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -7170,8 +7198,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
       <c r="B66" s="8" t="s">
         <v>3</v>
       </c>
@@ -7197,8 +7225,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
       <c r="B67" s="9" t="s">
         <v>4</v>
       </c>
@@ -7226,22 +7254,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A36:A38"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -7258,6 +7270,22 @@
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7270,360 +7298,4184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5E3A00-7AF9-4921-AFD1-04311C47B2FD}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:X67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
+      <selection activeCell="U61" sqref="U61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",C$2:C$16)</f>
+        <v>5</v>
+      </c>
+      <c r="P2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",D$2:D$16)</f>
+        <v>4</v>
+      </c>
+      <c r="Q2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",E$2:E$16)</f>
+        <v>2</v>
+      </c>
+      <c r="R2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",F$2:F$16)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",G$2:G$16)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",H$2:H$16)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",I$2:I$16)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",J$2:J$16)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",K$2:K$16)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="21">
+        <f>SUMIF($B$2:$B$16,  "Низкий",L$2:L$16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="35"/>
+      <c r="O3" s="22">
+        <f>O2/5</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="22">
+        <f>P2/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q3" s="22">
+        <f>Q2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="22">
+        <f>R2/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="22">
+        <f>S2/5</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <f>T2/5</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <f>U2/5</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="22">
+        <f>V2/5</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <f>W2/5</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
+        <f>X2/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",C$2:C$16)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",D$2:D$16)</f>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",E$2:E$16)</f>
+        <v>3</v>
+      </c>
+      <c r="R4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",F$2:F$16)</f>
+        <v>4</v>
+      </c>
+      <c r="S4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",G$2:G$16)</f>
+        <v>5</v>
+      </c>
+      <c r="T4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",H$2:H$16)</f>
+        <v>4</v>
+      </c>
+      <c r="U4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",I$2:I$16)</f>
+        <v>3</v>
+      </c>
+      <c r="V4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",J$2:J$16)</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",K$2:K$16)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="21">
+        <f>SUMIF($B$2:$B$16,  "Средний",L$2:L$16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="22">
+        <f>O4/5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
+        <f>P4/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="22">
+        <f>Q4/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="R5" s="22">
+        <f>R4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="22">
+        <f>S4/5</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="22">
+        <f>T4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="U5" s="22">
+        <f>U4/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="V5" s="22">
+        <f>V4/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="W5" s="22">
+        <f>W4/5</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="22">
+        <f>X4/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",C$2:C$16)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",D$2:D$16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",E$2:E$16)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",F$2:F$16)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",G$2:G$16)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",H$2:H$16)</f>
+        <v>2</v>
+      </c>
+      <c r="U6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",I$2:I$16)</f>
+        <v>3</v>
+      </c>
+      <c r="V6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",J$2:J$16)</f>
+        <v>4</v>
+      </c>
+      <c r="W6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",K$2:K$16)</f>
+        <v>5</v>
+      </c>
+      <c r="X6" s="20">
+        <f>SUMIF($B$2:$B$16,  "Высокий",L$2:L$16)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="18">
+        <f t="shared" ref="O7:T7" si="0">O6/5</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="U7" s="18">
+        <f>U6/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="V7" s="18">
+        <f>V6/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="W7" s="18">
+        <f>W6/5</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="18">
+        <f>X6/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>1</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>1</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",C$19:C$33)</f>
+        <v>5</v>
+      </c>
+      <c r="P19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",D$19:D$33)</f>
+        <v>5</v>
+      </c>
+      <c r="Q19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",E$19:E$33)</f>
+        <v>5</v>
+      </c>
+      <c r="R19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",F$19:F$33)</f>
+        <v>3</v>
+      </c>
+      <c r="S19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",G$19:G$33)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",H$19:H$33)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",I$19:I$33)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",J$19:J$33)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",K$19:K$33)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="21">
+        <f>SUMIF($B$19:$B$33,  "Низкий",L$19:L$33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="35"/>
+      <c r="O20" s="22">
+        <f t="shared" ref="O20:T20" si="1">O19/5</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="S20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="T20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="22">
+        <f>U19/5</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="22">
+        <f>V19/5</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="22">
+        <f>W19/5</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="22">
+        <f>X19/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",C$19:C$33)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",D$19:D$33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",E$19:E$33)</f>
+        <v>1</v>
+      </c>
+      <c r="R21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",F$19:F$33)</f>
+        <v>4</v>
+      </c>
+      <c r="S21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",G$19:G$33)</f>
+        <v>4</v>
+      </c>
+      <c r="T21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",H$19:H$33)</f>
+        <v>5</v>
+      </c>
+      <c r="U21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",I$19:I$33)</f>
+        <v>5</v>
+      </c>
+      <c r="V21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",J$19:J$33)</f>
+        <v>4</v>
+      </c>
+      <c r="W21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",K$19:K$33)</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="21">
+        <f>SUMIF($B$19:$B$33,  "Средний",L$19:L$33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="35"/>
+      <c r="O22" s="22">
+        <f t="shared" ref="O22:T22" si="2">O21/5</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="R22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="S22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="T22" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="22">
+        <f>U21/5</f>
+        <v>1</v>
+      </c>
+      <c r="V22" s="22">
+        <f>V21/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="W22" s="22">
+        <f>W21/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="X22" s="22">
+        <f>X21/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",C$19:C$33)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",D$19:D$33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",E$19:E$33)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",F$19:F$33)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",G$19:G$33)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",H$19:H$33)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",I$19:I$33)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",J$19:J$33)</f>
+        <v>4</v>
+      </c>
+      <c r="W23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",K$19:K$33)</f>
+        <v>4</v>
+      </c>
+      <c r="X23" s="20">
+        <f>SUMIF($B$19:$B$33,  "Высокий",L$19:L$33)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" s="18">
+        <f t="shared" ref="O24:T24" si="3">O23/5</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="18">
+        <f>U23/5</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="18">
+        <f>V23/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="W24" s="18">
+        <f>W23/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="X24" s="18">
+        <f>X23/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>3</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
+      <c r="B27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14">
+        <v>1</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>4</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>5</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>1</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",C$36:C$50)</f>
+        <v>5</v>
+      </c>
+      <c r="P36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",D$36:D$50)</f>
+        <v>5</v>
+      </c>
+      <c r="Q36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",E$36:E$50)</f>
+        <v>3</v>
+      </c>
+      <c r="R36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",F$36:F$50)</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",G$36:G$50)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",H$36:H$50)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",I$36:I$50)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",J$36:J$50)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",K$36:K$50)</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="21">
+        <f>SUMIF($B$36:$B$50,  "Низкий",L$36:L$50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="N37" s="35"/>
+      <c r="O37" s="22">
+        <f t="shared" ref="O37:T37" si="4">O36/5</f>
+        <v>1</v>
+      </c>
+      <c r="P37" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="22">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="R37" s="22">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="S37" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="22">
+        <f>U36/5</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="22">
+        <f>V36/5</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="22">
+        <f>W36/5</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="22">
+        <f>X36/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
+      <c r="B38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="14">
+        <v>1</v>
+      </c>
+      <c r="L38" s="14">
+        <v>1</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",C$36:C$50)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",D$36:D$50)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",E$36:E$50)</f>
+        <v>4</v>
+      </c>
+      <c r="R38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",F$36:F$50)</f>
+        <v>4</v>
+      </c>
+      <c r="S38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",G$36:G$50)</f>
+        <v>5</v>
+      </c>
+      <c r="T38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",H$36:H$50)</f>
+        <v>5</v>
+      </c>
+      <c r="U38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",I$36:I$50)</f>
+        <v>4</v>
+      </c>
+      <c r="V38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",J$36:J$50)</f>
+        <v>3</v>
+      </c>
+      <c r="W38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",K$36:K$50)</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="21">
+        <f>SUMIF($B$36:$B$50,  "Средний",L$36:L$50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>2</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="N39" s="35"/>
+      <c r="O39" s="22">
+        <f t="shared" ref="O39:T39" si="5">O38/5</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="22">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="R39" s="22">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="S39" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T39" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U39" s="22">
+        <f>U38/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="V39" s="22">
+        <f>V38/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="W39" s="22">
+        <f>W38/5</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="22">
+        <f>X38/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",C$36:C$50)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",D$36:D$50)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",E$36:E$50)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",F$36:F$50)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",G$36:G$50)</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",H$36:H$50)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",I$36:I$50)</f>
+        <v>3</v>
+      </c>
+      <c r="V40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",J$36:J$50)</f>
+        <v>4</v>
+      </c>
+      <c r="W40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",K$36:K$50)</f>
+        <v>5</v>
+      </c>
+      <c r="X40" s="20">
+        <f>SUMIF($B$36:$B$50,  "Высокий",L$36:L$50)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32"/>
+      <c r="B41" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14">
+        <v>1</v>
+      </c>
+      <c r="L41" s="14">
+        <v>1</v>
+      </c>
+      <c r="N41" s="23"/>
+      <c r="O41" s="18">
+        <f t="shared" ref="O41:T41" si="6">O40/5</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="18">
+        <f>U40/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="V41" s="18">
+        <f>V40/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="W41" s="18">
+        <f>W40/5</f>
+        <v>1</v>
+      </c>
+      <c r="X41" s="18">
+        <f>X40/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <v>3</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17">
+        <v>0</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8">
+        <v>1</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8">
+        <v>1</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
+      <c r="B44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="K44" s="14">
+        <v>1</v>
+      </c>
+      <c r="L44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
+        <v>4</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0</v>
+      </c>
+      <c r="I45" s="17">
+        <v>0</v>
+      </c>
+      <c r="J45" s="17">
+        <v>0</v>
+      </c>
+      <c r="K45" s="17">
+        <v>0</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8">
+        <v>1</v>
+      </c>
+      <c r="I46" s="8">
+        <v>1</v>
+      </c>
+      <c r="J46" s="8">
+        <v>1</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
+      <c r="B47" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47" s="14">
+        <v>1</v>
+      </c>
+      <c r="J47" s="14">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14">
+        <v>1</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>5</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8">
+        <v>1</v>
+      </c>
+      <c r="I49" s="8">
+        <v>1</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
+        <v>1</v>
+      </c>
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R52" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S52" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T52" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U52" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V52" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X52" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <v>1</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0</v>
+      </c>
+      <c r="K53" s="13">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0</v>
+      </c>
+      <c r="N53" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",C$53:C$67)</f>
+        <v>5</v>
+      </c>
+      <c r="P53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",D$53:D$67)</f>
+        <v>5</v>
+      </c>
+      <c r="Q53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",E$53:E$67)</f>
+        <v>4</v>
+      </c>
+      <c r="R53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",F$53:F$67)</f>
+        <v>2</v>
+      </c>
+      <c r="S53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",G$53:G$67)</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",H$53:H$67)</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",I$53:I$67)</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",J$53:J$67)</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",K$53:K$67)</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="21">
+        <f>SUMIF($B$53:$B$67,  "Низкий",L$53:L$67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1</v>
+      </c>
+      <c r="I54" s="8">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="N54" s="35"/>
+      <c r="O54" s="22">
+        <f t="shared" ref="O54:T54" si="7">O53/5</f>
+        <v>1</v>
+      </c>
+      <c r="P54" s="22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q54" s="22">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="R54" s="22">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="S54" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="22">
+        <f>U53/5</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="22">
+        <f>V53/5</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="22">
+        <f>W53/5</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="22">
+        <f>X53/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="32"/>
+      <c r="B55" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>0</v>
+      </c>
+      <c r="I55" s="14">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14">
+        <v>1</v>
+      </c>
+      <c r="K55" s="14">
+        <v>1</v>
+      </c>
+      <c r="L55" s="14">
+        <v>1</v>
+      </c>
+      <c r="N55" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",C$53:C$67)</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",D$53:D$67)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",E$53:E$67)</f>
+        <v>1</v>
+      </c>
+      <c r="R55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",F$53:F$67)</f>
+        <v>2</v>
+      </c>
+      <c r="S55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",G$53:G$67)</f>
+        <v>5</v>
+      </c>
+      <c r="T55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",H$53:H$67)</f>
+        <v>5</v>
+      </c>
+      <c r="U55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",I$53:I$67)</f>
+        <v>5</v>
+      </c>
+      <c r="V55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",J$53:J$67)</f>
+        <v>4</v>
+      </c>
+      <c r="W55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",K$53:K$67)</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="21">
+        <f>SUMIF($B$53:$B$67,  "Средний",L$53:L$67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33">
+        <v>2</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0</v>
+      </c>
+      <c r="G56" s="17">
+        <v>0</v>
+      </c>
+      <c r="H56" s="17">
+        <v>0</v>
+      </c>
+      <c r="I56" s="17">
+        <v>0</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0</v>
+      </c>
+      <c r="K56" s="17">
+        <v>0</v>
+      </c>
+      <c r="L56" s="17">
+        <v>0</v>
+      </c>
+      <c r="N56" s="35"/>
+      <c r="O56" s="22">
+        <f t="shared" ref="O56:T56" si="8">O55/5</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="22">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="R56" s="22">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="S56" s="22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T56" s="22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U56" s="22">
+        <f>U55/5</f>
+        <v>1</v>
+      </c>
+      <c r="V56" s="22">
+        <f>V55/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="W56" s="22">
+        <f>W55/5</f>
+        <v>0</v>
+      </c>
+      <c r="X56" s="22">
+        <f>X55/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8">
+        <v>1</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="N57" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",C$53:C$67)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",D$53:D$67)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",E$53:E$67)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",F$53:F$67)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",G$53:G$67)</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",H$53:H$67)</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",I$53:I$67)</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",J$53:J$67)</f>
+        <v>2</v>
+      </c>
+      <c r="W57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",K$53:K$67)</f>
+        <v>5</v>
+      </c>
+      <c r="X57" s="20">
+        <f>SUMIF($B$53:$B$67,  "Высокий",L$53:L$67)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="32"/>
+      <c r="B58" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>0</v>
+      </c>
+      <c r="I58" s="14">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <v>1</v>
+      </c>
+      <c r="K58" s="14">
+        <v>1</v>
+      </c>
+      <c r="L58" s="14">
+        <v>1</v>
+      </c>
+      <c r="N58" s="23"/>
+      <c r="O58" s="18">
+        <f t="shared" ref="O58:T58" si="9">O57/5</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="18">
+        <f>U57/5</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="18">
+        <f>V57/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="W58" s="18">
+        <f>W57/5</f>
+        <v>1</v>
+      </c>
+      <c r="X58" s="18">
+        <f>X57/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
+        <v>3</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1</v>
+      </c>
+      <c r="D59" s="17">
+        <v>1</v>
+      </c>
+      <c r="E59" s="17">
+        <v>1</v>
+      </c>
+      <c r="F59" s="17">
+        <v>1</v>
+      </c>
+      <c r="G59" s="17">
+        <v>0</v>
+      </c>
+      <c r="H59" s="17">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17">
+        <v>0</v>
+      </c>
+      <c r="J59" s="17">
+        <v>0</v>
+      </c>
+      <c r="K59" s="17">
+        <v>0</v>
+      </c>
+      <c r="L59" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="8">
+        <v>1</v>
+      </c>
+      <c r="I60" s="8">
+        <v>1</v>
+      </c>
+      <c r="J60" s="8">
+        <v>1</v>
+      </c>
+      <c r="K60" s="8">
+        <v>0</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="32"/>
+      <c r="B61" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="14">
+        <v>0</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0</v>
+      </c>
+      <c r="I61" s="14">
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <v>0</v>
+      </c>
+      <c r="K61" s="14">
+        <v>1</v>
+      </c>
+      <c r="L61" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="33">
+        <v>4</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17">
+        <v>1</v>
+      </c>
+      <c r="G62" s="17">
+        <v>0</v>
+      </c>
+      <c r="H62" s="17">
+        <v>0</v>
+      </c>
+      <c r="I62" s="17">
+        <v>0</v>
+      </c>
+      <c r="J62" s="17">
+        <v>0</v>
+      </c>
+      <c r="K62" s="17">
+        <v>0</v>
+      </c>
+      <c r="L62" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="31"/>
+      <c r="B63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8">
+        <v>1</v>
+      </c>
+      <c r="I63" s="8">
+        <v>1</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1</v>
+      </c>
+      <c r="K63" s="8">
+        <v>0</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="32"/>
+      <c r="B64" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="14">
+        <v>0</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
+        <v>0</v>
+      </c>
+      <c r="K64" s="14">
+        <v>1</v>
+      </c>
+      <c r="L64" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>5</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="13">
+        <v>1</v>
+      </c>
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0</v>
+      </c>
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13">
+        <v>0</v>
+      </c>
+      <c r="J65" s="13">
+        <v>0</v>
+      </c>
+      <c r="K65" s="13">
+        <v>0</v>
+      </c>
+      <c r="L65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1</v>
+      </c>
+      <c r="I66" s="8">
+        <v>1</v>
+      </c>
+      <c r="J66" s="8">
+        <v>1</v>
+      </c>
+      <c r="K66" s="8">
+        <v>0</v>
+      </c>
+      <c r="L66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>1</v>
+      </c>
+      <c r="L67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9F6B3B-58AF-4056-BEBE-3907F06328EB}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection sqref="A1:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33">
-        <v>1</v>
-      </c>
-      <c r="B1" s="33">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33">
-        <v>0</v>
-      </c>
-      <c r="E1" s="33">
-        <v>0</v>
-      </c>
-      <c r="F1" s="33">
-        <v>0</v>
-      </c>
-      <c r="G1" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34">
-        <v>0</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34">
-        <v>1</v>
-      </c>
-      <c r="F2" s="34">
-        <v>1</v>
-      </c>
-      <c r="G2" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
-        <v>0</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-      <c r="C3" s="35">
-        <v>0</v>
-      </c>
-      <c r="D3" s="35">
-        <v>0</v>
-      </c>
-      <c r="E3" s="35">
-        <v>0</v>
-      </c>
-      <c r="F3" s="35">
-        <v>0</v>
-      </c>
-      <c r="G3" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33">
-        <v>1</v>
-      </c>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33">
-        <v>0</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <v>0</v>
-      </c>
-      <c r="G4" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34">
-        <v>0</v>
-      </c>
-      <c r="B5" s="34">
-        <v>0</v>
-      </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34">
-        <v>1</v>
-      </c>
-      <c r="E5" s="34">
-        <v>1</v>
-      </c>
-      <c r="F5" s="34">
-        <v>1</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
-        <v>0</v>
-      </c>
-      <c r="B6" s="35">
-        <v>0</v>
-      </c>
-      <c r="C6" s="35">
-        <v>0</v>
-      </c>
-      <c r="D6" s="35">
-        <v>0</v>
-      </c>
-      <c r="E6" s="35">
-        <v>0</v>
-      </c>
-      <c r="F6" s="35">
-        <v>0</v>
-      </c>
-      <c r="G6" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
-        <v>1</v>
-      </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
-        <v>0</v>
-      </c>
-      <c r="B8" s="34">
-        <v>0</v>
-      </c>
-      <c r="C8" s="34">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0</v>
-      </c>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
-        <v>0</v>
-      </c>
-      <c r="B9" s="35">
-        <v>0</v>
-      </c>
-      <c r="C9" s="35">
-        <v>0</v>
-      </c>
-      <c r="D9" s="35">
-        <v>0</v>
-      </c>
-      <c r="E9" s="35">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35">
-        <v>1</v>
-      </c>
-      <c r="G9" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
-        <v>1</v>
-      </c>
-      <c r="B10" s="33">
-        <v>0</v>
-      </c>
-      <c r="C10" s="33">
-        <v>0</v>
-      </c>
-      <c r="D10" s="33">
-        <v>0</v>
-      </c>
-      <c r="E10" s="33">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
-        <v>0</v>
-      </c>
-      <c r="G10" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34">
-        <v>0</v>
-      </c>
-      <c r="B11" s="34">
-        <v>1</v>
-      </c>
-      <c r="C11" s="34">
-        <v>1</v>
-      </c>
-      <c r="D11" s="34">
-        <v>1</v>
-      </c>
-      <c r="E11" s="34">
-        <v>1</v>
-      </c>
-      <c r="F11" s="34">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
-        <v>0</v>
-      </c>
-      <c r="B12" s="35">
-        <v>0</v>
-      </c>
-      <c r="C12" s="35">
-        <v>0</v>
-      </c>
-      <c r="D12" s="35">
-        <v>0</v>
-      </c>
-      <c r="E12" s="35">
-        <v>0</v>
-      </c>
-      <c r="F12" s="35">
-        <v>1</v>
-      </c>
-      <c r="G12" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
-        <v>1</v>
-      </c>
-      <c r="B13" s="33">
-        <v>1</v>
-      </c>
-      <c r="C13" s="33">
-        <v>1</v>
-      </c>
-      <c r="D13" s="33">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
-        <v>0</v>
-      </c>
-      <c r="B14" s="34">
-        <v>0</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34">
-        <v>1</v>
-      </c>
-      <c r="E14" s="34">
-        <v>1</v>
-      </c>
-      <c r="F14" s="34">
-        <v>1</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
-        <v>0</v>
-      </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="35">
-        <v>0</v>
-      </c>
-      <c r="D15" s="35">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uhh.xlsx
+++ b/uhh.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\univer\3_1\gish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC86E30-BF13-4EFC-8708-52451C51E5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62F256-908E-412E-83C5-D6396A5F578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10500" activeTab="2" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
+    <workbookView xWindow="19200" yWindow="10500" windowWidth="19200" windowHeight="10500" activeTab="3" xr2:uid="{F2B2F0D8-E111-4010-8463-4FE72A2EBDAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаб1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаб2" sheetId="2" r:id="rId2"/>
     <sheet name="Лаб3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="Лаб5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="87">
   <si>
     <t>k</t>
   </si>
@@ -199,6 +199,105 @@
   </si>
   <si>
     <t>90-100</t>
+  </si>
+  <si>
+    <t>IF1</t>
+  </si>
+  <si>
+    <t>IF2</t>
+  </si>
+  <si>
+    <t>IF3</t>
+  </si>
+  <si>
+    <t>IF4</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>31.6808</t>
+  </si>
+  <si>
+    <t>31.6982</t>
+  </si>
+  <si>
+    <t>31.6919</t>
+  </si>
+  <si>
+    <t>31.6827</t>
+  </si>
+  <si>
+    <t>31.68</t>
+  </si>
+  <si>
+    <t>31.6809</t>
+  </si>
+  <si>
+    <t>31.6795</t>
+  </si>
+  <si>
+    <t>31.6799</t>
+  </si>
+  <si>
+    <t>31.6803</t>
+  </si>
+  <si>
+    <t>31.6685</t>
+  </si>
+  <si>
+    <t>31.6703</t>
+  </si>
+  <si>
+    <t>31.6762</t>
+  </si>
+  <si>
+    <t>31.6767</t>
+  </si>
+  <si>
+    <t>31.6761</t>
+  </si>
+  <si>
+    <t>31.6727</t>
+  </si>
+  <si>
+    <t>31.6973</t>
+  </si>
+  <si>
+    <t>31.7722</t>
+  </si>
+  <si>
+    <t>31.7159</t>
+  </si>
+  <si>
+    <t>31.7109</t>
+  </si>
+  <si>
+    <t>31.7314</t>
+  </si>
+  <si>
+    <t>31.7411</t>
+  </si>
+  <si>
+    <t>31.6977</t>
+  </si>
+  <si>
+    <t>31.7408</t>
+  </si>
+  <si>
+    <t>31.7701</t>
+  </si>
+  <si>
+    <t>31.7646</t>
+  </si>
+  <si>
+    <t>31.7744</t>
+  </si>
+  <si>
+    <t>31.7909</t>
+  </si>
+  <si>
+    <t>31.7756</t>
   </si>
 </sst>
 </file>
@@ -426,6 +525,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,28 +543,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3782,7 +3881,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3809,7 +3908,7 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="L2">
@@ -3842,7 +3941,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3867,7 +3966,7 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="27"/>
       <c r="L3">
         <f>L2/5</f>
         <v>1</v>
@@ -3898,7 +3997,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +4022,7 @@
       <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="L4">
@@ -3956,7 +4055,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3983,7 +4082,7 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="27"/>
       <c r="L5">
         <f>L4/5</f>
         <v>0</v>
@@ -4014,7 +4113,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -4039,7 +4138,7 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="27" t="s">
         <v>4</v>
       </c>
       <c r="L6">
@@ -4072,7 +4171,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -4097,7 +4196,7 @@
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="27"/>
       <c r="L7">
         <f>L6/5</f>
         <v>0</v>
@@ -4128,7 +4227,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="26">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4155,19 +4254,19 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -4218,7 +4317,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -4275,7 +4374,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="26">
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4333,7 +4432,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -4388,7 +4487,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
@@ -4442,7 +4541,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="26">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4497,7 +4596,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
@@ -4549,7 +4648,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -4681,7 +4780,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -4708,7 +4807,7 @@
       <c r="I2" s="13">
         <v>0</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="21">
@@ -4741,7 +4840,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4766,7 +4865,7 @@
       <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="K3" s="29"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="22">
         <f>L2/5</f>
         <v>1</v>
@@ -4797,7 +4896,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
@@ -4822,7 +4921,7 @@
       <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="21">
@@ -4882,7 +4981,7 @@
       <c r="I5" s="17">
         <v>0</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="22">
         <f>L4/5</f>
         <v>0</v>
@@ -4913,7 +5012,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -4938,7 +5037,7 @@
       <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="20">
@@ -4971,7 +5070,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
@@ -4996,7 +5095,7 @@
       <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="18">
         <f>L6/5</f>
         <v>0</v>
@@ -5056,7 +5155,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
@@ -5083,7 +5182,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
@@ -5139,7 +5238,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
@@ -5166,7 +5265,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5292,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="35">
         <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -5222,7 +5321,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +5348,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
@@ -5340,7 +5439,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="35">
         <v>1</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -5367,7 +5466,7 @@
       <c r="I19" s="13">
         <v>0</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="31" t="s">
         <v>2</v>
       </c>
       <c r="L19" s="21">
@@ -5400,7 +5499,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
@@ -5425,7 +5524,7 @@
       <c r="I20" s="8">
         <v>0</v>
       </c>
-      <c r="K20" s="29"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="22">
         <f>L19/5</f>
         <v>1</v>
@@ -5456,7 +5555,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
@@ -5481,7 +5580,7 @@
       <c r="I21" s="14">
         <v>1</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="31" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="21">
@@ -5541,7 +5640,7 @@
       <c r="I22" s="17">
         <v>0</v>
       </c>
-      <c r="K22" s="29"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="22">
         <f>L21/5</f>
         <v>0</v>
@@ -5572,7 +5671,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
@@ -5597,7 +5696,7 @@
       <c r="I23" s="8">
         <v>0</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="28" t="s">
         <v>4</v>
       </c>
       <c r="L23" s="20">
@@ -5630,7 +5729,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
@@ -5655,7 +5754,7 @@
       <c r="I24" s="14">
         <v>1</v>
       </c>
-      <c r="K24" s="27"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="18">
         <f>L23/5</f>
         <v>0</v>
@@ -5715,7 +5814,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
@@ -5742,7 +5841,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
@@ -5798,7 +5897,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
@@ -5825,7 +5924,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="14" t="s">
         <v>4</v>
       </c>
@@ -5852,7 +5951,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="35">
         <v>5</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -5881,7 +5980,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="8" t="s">
         <v>3</v>
       </c>
@@ -5908,7 +6007,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
@@ -5999,7 +6098,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="35">
         <v>1</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -6026,7 +6125,7 @@
       <c r="I36" s="13">
         <v>0</v>
       </c>
-      <c r="K36" s="28" t="s">
+      <c r="K36" s="31" t="s">
         <v>2</v>
       </c>
       <c r="L36" s="21">
@@ -6059,7 +6158,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="8" t="s">
         <v>3</v>
       </c>
@@ -6084,7 +6183,7 @@
       <c r="I37" s="8">
         <v>0</v>
       </c>
-      <c r="K37" s="29"/>
+      <c r="K37" s="32"/>
       <c r="L37" s="22">
         <f>L36/5</f>
         <v>1</v>
@@ -6115,7 +6214,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="14" t="s">
         <v>4</v>
       </c>
@@ -6140,7 +6239,7 @@
       <c r="I38" s="14">
         <v>1</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="31" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="21">
@@ -6200,7 +6299,7 @@
       <c r="I39" s="17">
         <v>0</v>
       </c>
-      <c r="K39" s="29"/>
+      <c r="K39" s="32"/>
       <c r="L39" s="22">
         <f>L38/5</f>
         <v>0</v>
@@ -6231,7 +6330,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
@@ -6256,7 +6355,7 @@
       <c r="I40" s="8">
         <v>0</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="28" t="s">
         <v>4</v>
       </c>
       <c r="L40" s="20">
@@ -6289,7 +6388,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="14" t="s">
         <v>4</v>
       </c>
@@ -6314,7 +6413,7 @@
       <c r="I41" s="14">
         <v>1</v>
       </c>
-      <c r="K41" s="27"/>
+      <c r="K41" s="29"/>
       <c r="L41" s="18">
         <f>L40/5</f>
         <v>0</v>
@@ -6374,7 +6473,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="8" t="s">
         <v>3</v>
       </c>
@@ -6401,7 +6500,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
@@ -6457,7 +6556,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="8" t="s">
         <v>3</v>
       </c>
@@ -6484,7 +6583,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="14" t="s">
         <v>4</v>
       </c>
@@ -6511,7 +6610,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+      <c r="A48" s="35">
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -6540,7 +6639,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="8" t="s">
         <v>3</v>
       </c>
@@ -6567,7 +6666,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="9" t="s">
         <v>4</v>
       </c>
@@ -6658,7 +6757,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="31">
+      <c r="A53" s="30">
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -6685,7 +6784,7 @@
       <c r="I53" s="7">
         <v>0</v>
       </c>
-      <c r="K53" s="28" t="s">
+      <c r="K53" s="31" t="s">
         <v>2</v>
       </c>
       <c r="L53" s="21">
@@ -6718,7 +6817,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="8" t="s">
         <v>3</v>
       </c>
@@ -6743,7 +6842,7 @@
       <c r="I54" s="8">
         <v>0</v>
       </c>
-      <c r="K54" s="29"/>
+      <c r="K54" s="32"/>
       <c r="L54" s="22">
         <f>L53/5</f>
         <v>1</v>
@@ -6774,7 +6873,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="9" t="s">
         <v>4</v>
       </c>
@@ -6799,7 +6898,7 @@
       <c r="I55" s="9">
         <v>1</v>
       </c>
-      <c r="K55" s="28" t="s">
+      <c r="K55" s="31" t="s">
         <v>3</v>
       </c>
       <c r="L55" s="21">
@@ -6832,7 +6931,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="31">
+      <c r="A56" s="30">
         <v>2</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -6859,7 +6958,7 @@
       <c r="I56" s="7">
         <v>0</v>
       </c>
-      <c r="K56" s="29"/>
+      <c r="K56" s="32"/>
       <c r="L56" s="22">
         <f>L55/5</f>
         <v>0</v>
@@ -6890,7 +6989,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
@@ -6915,7 +7014,7 @@
       <c r="I57" s="8">
         <v>0</v>
       </c>
-      <c r="K57" s="26" t="s">
+      <c r="K57" s="28" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="20">
@@ -6948,7 +7047,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="9" t="s">
         <v>4</v>
       </c>
@@ -6973,7 +7072,7 @@
       <c r="I58" s="9">
         <v>1</v>
       </c>
-      <c r="K58" s="27"/>
+      <c r="K58" s="29"/>
       <c r="L58" s="18">
         <f>L57/5</f>
         <v>0</v>
@@ -7004,7 +7103,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="31">
+      <c r="A59" s="30">
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -7033,7 +7132,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="8" t="s">
         <v>3</v>
       </c>
@@ -7060,7 +7159,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
@@ -7087,7 +7186,7 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="31">
+      <c r="A62" s="30">
         <v>4</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -7116,7 +7215,7 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="8" t="s">
         <v>3</v>
       </c>
@@ -7143,7 +7242,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="9" t="s">
         <v>4</v>
       </c>
@@ -7170,7 +7269,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
+      <c r="A65" s="30">
         <v>5</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -7199,7 +7298,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="8" t="s">
         <v>3</v>
       </c>
@@ -7226,7 +7325,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="9" t="s">
         <v>4</v>
       </c>
@@ -7254,6 +7353,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -7270,22 +7385,6 @@
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7300,7 +7399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5E3A00-7AF9-4921-AFD1-04311C47B2FD}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
+    <sheetView topLeftCell="F49" workbookViewId="0">
       <selection activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
@@ -7381,7 +7480,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -7417,52 +7516,52 @@
       <c r="L2" s="13">
         <v>0</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",C$2:C$16)</f>
+        <f t="shared" ref="O2:X2" si="0">SUMIF($B$2:$B$16,  "Низкий",C$2:C$16)</f>
         <v>5</v>
       </c>
       <c r="P2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",D$2:D$16)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",E$2:E$16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",F$2:F$16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",G$2:G$16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",H$2:H$16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",I$2:I$16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",J$2:J$16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",K$2:K$16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X2" s="21">
-        <f>SUMIF($B$2:$B$16,  "Низкий",L$2:L$16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -7496,50 +7595,50 @@
       <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="35"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="22">
-        <f>O2/5</f>
+        <f t="shared" ref="O3:X3" si="1">O2/5</f>
         <v>1</v>
       </c>
       <c r="P3" s="22">
-        <f>P2/5</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="Q3" s="22">
-        <f>Q2/5</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="R3" s="22">
-        <f>R2/5</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="S3" s="22">
-        <f>S2/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T3" s="22">
-        <f>T2/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U3" s="22">
-        <f>U2/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V3" s="22">
-        <f>V2/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W3" s="22">
-        <f>W2/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X3" s="22">
-        <f>X2/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
@@ -7573,47 +7672,47 @@
       <c r="L4" s="14">
         <v>1</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",C$2:C$16)</f>
+        <f t="shared" ref="O4:X4" si="2">SUMIF($B$2:$B$16,  "Средний",C$2:C$16)</f>
         <v>0</v>
       </c>
       <c r="P4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",D$2:D$16)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",E$2:E$16)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="R4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",F$2:F$16)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",G$2:G$16)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",H$2:H$16)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",I$2:I$16)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",J$2:J$16)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",K$2:K$16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X4" s="21">
-        <f>SUMIF($B$2:$B$16,  "Средний",L$2:L$16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7654,50 +7753,50 @@
       <c r="L5" s="17">
         <v>0</v>
       </c>
-      <c r="N5" s="35"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="22">
-        <f>O4/5</f>
+        <f t="shared" ref="O5:X5" si="3">O4/5</f>
         <v>0</v>
       </c>
       <c r="P5" s="22">
-        <f>P4/5</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="Q5" s="22">
-        <f>Q4/5</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="R5" s="22">
-        <f>R4/5</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="S5" s="22">
-        <f>S4/5</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T5" s="22">
-        <f>T4/5</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="U5" s="22">
-        <f>U4/5</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="V5" s="22">
-        <f>V4/5</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="W5" s="22">
-        <f>W4/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X5" s="22">
-        <f>X4/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -7731,52 +7830,52 @@
       <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",C$2:C$16)</f>
+        <f t="shared" ref="O6:X6" si="4">SUMIF($B$2:$B$16,  "Высокий",C$2:C$16)</f>
         <v>0</v>
       </c>
       <c r="P6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",D$2:D$16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",E$2:E$16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",F$2:F$16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",G$2:G$16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",H$2:H$16)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",I$2:I$16)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="V6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",J$2:J$16)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="W6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",K$2:K$16)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X6" s="20">
-        <f>SUMIF($B$2:$B$16,  "Высокий",L$2:L$16)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
@@ -7812,27 +7911,27 @@
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="18">
-        <f t="shared" ref="O7:T7" si="0">O6/5</f>
+        <f t="shared" ref="O7:T7" si="5">O6/5</f>
         <v>0</v>
       </c>
       <c r="P7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="U7" s="18">
@@ -7891,7 +7990,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
@@ -7927,7 +8026,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
@@ -8001,7 +8100,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
@@ -8037,7 +8136,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
@@ -8073,7 +8172,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="35">
         <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -8111,7 +8210,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
@@ -8147,7 +8246,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
@@ -8268,7 +8367,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="35">
         <v>1</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -8304,52 +8403,52 @@
       <c r="L19" s="13">
         <v>0</v>
       </c>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="24" t="s">
         <v>2</v>
       </c>
       <c r="O19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",C$19:C$33)</f>
+        <f t="shared" ref="O19:X19" si="6">SUMIF($B$19:$B$33,  "Низкий",C$19:C$33)</f>
         <v>5</v>
       </c>
       <c r="P19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",D$19:D$33)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",E$19:E$33)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="R19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",F$19:F$33)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="S19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",G$19:G$33)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",H$19:H$33)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",I$19:I$33)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",J$19:J$33)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",K$19:K$33)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X19" s="21">
-        <f>SUMIF($B$19:$B$33,  "Низкий",L$19:L$33)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
@@ -8383,29 +8482,29 @@
       <c r="L20" s="8">
         <v>0</v>
       </c>
-      <c r="N20" s="35"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="22">
-        <f t="shared" ref="O20:T20" si="1">O19/5</f>
+        <f t="shared" ref="O20:T20" si="7">O19/5</f>
         <v>1</v>
       </c>
       <c r="P20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="S20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="T20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U20" s="22">
@@ -8426,7 +8525,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
@@ -8460,47 +8559,47 @@
       <c r="L21" s="14">
         <v>1</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="N21" s="24" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",C$19:C$33)</f>
+        <f t="shared" ref="O21:X21" si="8">SUMIF($B$19:$B$33,  "Средний",C$19:C$33)</f>
         <v>0</v>
       </c>
       <c r="P21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",D$19:D$33)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",E$19:E$33)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",F$19:F$33)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",G$19:G$33)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="T21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",H$19:H$33)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="U21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",I$19:I$33)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",J$19:J$33)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="W21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",K$19:K$33)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="X21" s="21">
-        <f>SUMIF($B$19:$B$33,  "Средний",L$19:L$33)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8541,29 +8640,29 @@
       <c r="L22" s="17">
         <v>0</v>
       </c>
-      <c r="N22" s="35"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="22">
-        <f t="shared" ref="O22:T22" si="2">O21/5</f>
+        <f t="shared" ref="O22:T22" si="9">O21/5</f>
         <v>0</v>
       </c>
       <c r="P22" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q22" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
       <c r="R22" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="S22" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="T22" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U22" s="22">
@@ -8584,7 +8683,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
@@ -8618,52 +8717,52 @@
       <c r="L23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="24" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",C$19:C$33)</f>
+        <f t="shared" ref="O23:X23" si="10">SUMIF($B$19:$B$33,  "Высокий",C$19:C$33)</f>
         <v>0</v>
       </c>
       <c r="P23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",D$19:D$33)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",E$19:E$33)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",F$19:F$33)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",G$19:G$33)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",H$19:H$33)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",I$19:I$33)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",J$19:J$33)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="W23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",K$19:K$33)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="X23" s="20">
-        <f>SUMIF($B$19:$B$33,  "Высокий",L$19:L$33)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
@@ -8699,27 +8798,27 @@
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="18">
-        <f t="shared" ref="O24:T24" si="3">O23/5</f>
+        <f t="shared" ref="O24:T24" si="11">O23/5</f>
         <v>0</v>
       </c>
       <c r="P24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U24" s="18">
@@ -8778,7 +8877,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
@@ -8814,7 +8913,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
@@ -8888,7 +8987,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
@@ -8924,7 +9023,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="14" t="s">
         <v>4</v>
       </c>
@@ -8960,7 +9059,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="35">
         <v>5</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -8998,7 +9097,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="8" t="s">
         <v>3</v>
       </c>
@@ -9034,7 +9133,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
@@ -9155,7 +9254,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="35">
         <v>1</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -9191,52 +9290,52 @@
       <c r="L36" s="13">
         <v>0</v>
       </c>
-      <c r="N36" s="34" t="s">
+      <c r="N36" s="24" t="s">
         <v>2</v>
       </c>
       <c r="O36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",C$36:C$50)</f>
+        <f t="shared" ref="O36:X36" si="12">SUMIF($B$36:$B$50,  "Низкий",C$36:C$50)</f>
         <v>5</v>
       </c>
       <c r="P36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",D$36:D$50)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="Q36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",E$36:E$50)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="R36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",F$36:F$50)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",G$36:G$50)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",H$36:H$50)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",I$36:I$50)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",J$36:J$50)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",K$36:K$50)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X36" s="21">
-        <f>SUMIF($B$36:$B$50,  "Низкий",L$36:L$50)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="8" t="s">
         <v>3</v>
       </c>
@@ -9270,29 +9369,29 @@
       <c r="L37" s="8">
         <v>0</v>
       </c>
-      <c r="N37" s="35"/>
+      <c r="N37" s="25"/>
       <c r="O37" s="22">
-        <f t="shared" ref="O37:T37" si="4">O36/5</f>
+        <f t="shared" ref="O37:T37" si="13">O36/5</f>
         <v>1</v>
       </c>
       <c r="P37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="R37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="S37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U37" s="22">
@@ -9313,7 +9412,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="14" t="s">
         <v>4</v>
       </c>
@@ -9347,47 +9446,47 @@
       <c r="L38" s="14">
         <v>1</v>
       </c>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="24" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",C$36:C$50)</f>
+        <f t="shared" ref="O38:X38" si="14">SUMIF($B$36:$B$50,  "Средний",C$36:C$50)</f>
         <v>0</v>
       </c>
       <c r="P38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",D$36:D$50)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",E$36:E$50)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="R38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",F$36:F$50)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",G$36:G$50)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="T38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",H$36:H$50)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="U38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",I$36:I$50)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="V38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",J$36:J$50)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="W38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",K$36:K$50)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X38" s="21">
-        <f>SUMIF($B$36:$B$50,  "Средний",L$36:L$50)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9428,29 +9527,29 @@
       <c r="L39" s="17">
         <v>0</v>
       </c>
-      <c r="N39" s="35"/>
+      <c r="N39" s="25"/>
       <c r="O39" s="22">
-        <f t="shared" ref="O39:T39" si="5">O38/5</f>
+        <f t="shared" ref="O39:T39" si="15">O38/5</f>
         <v>0</v>
       </c>
       <c r="P39" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q39" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
       <c r="R39" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
       <c r="S39" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T39" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U39" s="22">
@@ -9471,7 +9570,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
@@ -9505,52 +9604,52 @@
       <c r="L40" s="8">
         <v>0</v>
       </c>
-      <c r="N40" s="34" t="s">
+      <c r="N40" s="24" t="s">
         <v>4</v>
       </c>
       <c r="O40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",C$36:C$50)</f>
+        <f t="shared" ref="O40:X40" si="16">SUMIF($B$36:$B$50,  "Высокий",C$36:C$50)</f>
         <v>0</v>
       </c>
       <c r="P40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",D$36:D$50)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",E$36:E$50)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",F$36:F$50)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",G$36:G$50)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",H$36:H$50)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",I$36:I$50)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="V40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",J$36:J$50)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="W40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",K$36:K$50)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="X40" s="20">
-        <f>SUMIF($B$36:$B$50,  "Высокий",L$36:L$50)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="14" t="s">
         <v>4</v>
       </c>
@@ -9586,27 +9685,27 @@
       </c>
       <c r="N41" s="23"/>
       <c r="O41" s="18">
-        <f t="shared" ref="O41:T41" si="6">O40/5</f>
+        <f t="shared" ref="O41:T41" si="17">O40/5</f>
         <v>0</v>
       </c>
       <c r="P41" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q41" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R41" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S41" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T41" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U41" s="18">
@@ -9665,7 +9764,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="8" t="s">
         <v>3</v>
       </c>
@@ -9701,7 +9800,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="14" t="s">
         <v>4</v>
       </c>
@@ -9775,7 +9874,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="8" t="s">
         <v>3</v>
       </c>
@@ -9811,7 +9910,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="14" t="s">
         <v>4</v>
       </c>
@@ -9847,7 +9946,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+      <c r="A48" s="35">
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -9885,7 +9984,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="8" t="s">
         <v>3</v>
       </c>
@@ -9921,7 +10020,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="9" t="s">
         <v>4</v>
       </c>
@@ -10042,7 +10141,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="30">
+      <c r="A53" s="35">
         <v>1</v>
       </c>
       <c r="B53" s="17" t="s">
@@ -10078,52 +10177,52 @@
       <c r="L53" s="13">
         <v>0</v>
       </c>
-      <c r="N53" s="34" t="s">
+      <c r="N53" s="24" t="s">
         <v>2</v>
       </c>
       <c r="O53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",C$53:C$67)</f>
+        <f t="shared" ref="O53:X53" si="18">SUMIF($B$53:$B$67,  "Низкий",C$53:C$67)</f>
         <v>5</v>
       </c>
       <c r="P53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",D$53:D$67)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="Q53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",E$53:E$67)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="R53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",F$53:F$67)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",G$53:G$67)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",H$53:H$67)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",I$53:I$67)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",J$53:J$67)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",K$53:K$67)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X53" s="21">
-        <f>SUMIF($B$53:$B$67,  "Низкий",L$53:L$67)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="8" t="s">
         <v>3</v>
       </c>
@@ -10157,29 +10256,29 @@
       <c r="L54" s="8">
         <v>0</v>
       </c>
-      <c r="N54" s="35"/>
+      <c r="N54" s="25"/>
       <c r="O54" s="22">
-        <f t="shared" ref="O54:T54" si="7">O53/5</f>
+        <f t="shared" ref="O54:T54" si="19">O53/5</f>
         <v>1</v>
       </c>
       <c r="P54" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q54" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
       <c r="R54" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.4</v>
       </c>
       <c r="S54" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T54" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U54" s="22">
@@ -10200,7 +10299,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="14" t="s">
         <v>4</v>
       </c>
@@ -10234,47 +10333,47 @@
       <c r="L55" s="14">
         <v>1</v>
       </c>
-      <c r="N55" s="34" t="s">
+      <c r="N55" s="24" t="s">
         <v>3</v>
       </c>
       <c r="O55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",C$53:C$67)</f>
+        <f t="shared" ref="O55:X55" si="20">SUMIF($B$53:$B$67,  "Средний",C$53:C$67)</f>
         <v>0</v>
       </c>
       <c r="P55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",D$53:D$67)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",E$53:E$67)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="R55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",F$53:F$67)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="S55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",G$53:G$67)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="T55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",H$53:H$67)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="U55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",I$53:I$67)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="V55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",J$53:J$67)</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="W55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",K$53:K$67)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X55" s="21">
-        <f>SUMIF($B$53:$B$67,  "Средний",L$53:L$67)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -10315,29 +10414,29 @@
       <c r="L56" s="17">
         <v>0</v>
       </c>
-      <c r="N56" s="35"/>
+      <c r="N56" s="25"/>
       <c r="O56" s="22">
-        <f t="shared" ref="O56:T56" si="8">O55/5</f>
+        <f t="shared" ref="O56:T56" si="21">O55/5</f>
         <v>0</v>
       </c>
       <c r="P56" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q56" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
       <c r="R56" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
       <c r="S56" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T56" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="U56" s="22">
@@ -10358,7 +10457,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
@@ -10392,52 +10491,52 @@
       <c r="L57" s="8">
         <v>0</v>
       </c>
-      <c r="N57" s="34" t="s">
+      <c r="N57" s="24" t="s">
         <v>4</v>
       </c>
       <c r="O57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",C$53:C$67)</f>
+        <f t="shared" ref="O57:X57" si="22">SUMIF($B$53:$B$67,  "Высокий",C$53:C$67)</f>
         <v>0</v>
       </c>
       <c r="P57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",D$53:D$67)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",E$53:E$67)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",F$53:F$67)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",G$53:G$67)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",H$53:H$67)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",I$53:I$67)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",J$53:J$67)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="W57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",K$53:K$67)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="X57" s="20">
-        <f>SUMIF($B$53:$B$67,  "Высокий",L$53:L$67)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="14" t="s">
         <v>4</v>
       </c>
@@ -10473,27 +10572,27 @@
       </c>
       <c r="N58" s="23"/>
       <c r="O58" s="18">
-        <f t="shared" ref="O58:T58" si="9">O57/5</f>
+        <f t="shared" ref="O58:T58" si="23">O57/5</f>
         <v>0</v>
       </c>
       <c r="P58" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q58" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R58" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S58" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T58" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U58" s="18">
@@ -10552,7 +10651,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="8" t="s">
         <v>3</v>
       </c>
@@ -10588,7 +10687,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="14" t="s">
         <v>4</v>
       </c>
@@ -10662,7 +10761,7 @@
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="8" t="s">
         <v>3</v>
       </c>
@@ -10698,7 +10797,7 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="14" t="s">
         <v>4</v>
       </c>
@@ -10734,7 +10833,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
+      <c r="A65" s="35">
         <v>5</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -10772,7 +10871,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="8" t="s">
         <v>3</v>
       </c>
@@ -10808,7 +10907,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="9" t="s">
         <v>4</v>
       </c>
@@ -10845,6 +10944,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A67"/>
@@ -10853,629 +10964,481 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9F6B3B-58AF-4056-BEBE-3907F06328EB}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A28FCEA-D790-4BD2-9C21-6DBB8EB39507}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0</v>
-      </c>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1</v>
-      </c>
-      <c r="K4" s="14">
-        <v>1</v>
-      </c>
-      <c r="L4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1</v>
-      </c>
-      <c r="K7" s="14">
-        <v>1</v>
-      </c>
-      <c r="L7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="17">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14">
-        <v>1</v>
-      </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>5</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>